--- a/ЗАВОДЫ/ПОКОМ/ВЫЧИТАЕМ ОПТов/Оптовики учавствующие в промо ЛП и НВ.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ВЫЧИТАЕМ ОПТов/Оптовики учавствующие в промо ЛП и НВ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ВЫЧИТАЕМ ОПТов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04130B7F-AF42-45CC-9A6E-50FD98400094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65C725-AD95-4AC0-8342-4D914B0680D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{749108B3-0CAD-4D3E-8DC8-69AEED2C5197}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Джафаров Р.Ф. ИП Опт1  г Краснодар, ул им. Академика Лукьяненко П.П., д. 32, кв. 176</t>
   </si>
@@ -90,10 +90,25 @@
     <t>Соловьев В.А.</t>
   </si>
   <si>
-    <t>ЛП(2)</t>
-  </si>
-  <si>
     <t>ЛП(1)</t>
+  </si>
+  <si>
+    <t>Физическое лицо Поляков В.И. Запор. обл. Мелитопол р-н, с.Константиновка, ул. Комсомольская3, ОПТ1</t>
+  </si>
+  <si>
+    <t>НВ(2)</t>
+  </si>
+  <si>
+    <t>НВ(1)</t>
+  </si>
+  <si>
+    <t>ИП Поляков опт  Мелитополь ул. Невского 37/1 " ОПТ"</t>
+  </si>
+  <si>
+    <t>ЛП(2) / НВ(1)</t>
+  </si>
+  <si>
+    <t>ЛП(1) / НВ(1)</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,10 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,95 +485,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE248A3-8CCB-4148-95F3-0A01A31877FD}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="103.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -559,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -567,7 +609,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -575,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
